--- a/Travis_County/Documentation/Travis_County_2016_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2016_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['PPUNIT' 'QEXTRCT' 'QEDLESHI' 'QSERV' 'QHISPC' 'QESL' 'QNOHLTH' 'QFHH'
+          <t>['PPUNIT' 'QNOHLTH' 'QSERV' 'QEXTRCT' 'QESL' 'QHISPC' 'QEDLESHI' 'QFHH'
  'PERCAP']</t>
         </is>
       </c>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['QAGEDEP' 'MEDAGE' 'QSSBEN']</t>
+          <t>['MEDAGE' 'QAGEDEP' 'QSSBEN']</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['QPOVTY' 'QRENTER' 'QNOAUTO']</t>
+          <t>['QRENTER' 'QNOAUTO' 'QPOVTY']</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['QAGEDEP' 'QFEMLBR' 'QFEMALE']</t>
+          <t>['QAGEDEP' 'QFEMALE' 'QFEMLBR']</t>
         </is>
       </c>
     </row>
@@ -588,151 +588,151 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7835523153119286</v>
+        <v>0.7835523171479716</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.003789130532991502</v>
+        <v>-0.003789133447526956</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1313207977777705</v>
+        <v>-0.1313207950294227</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3772473382844373</v>
+        <v>-0.3772473370256653</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1043526307455094</v>
+        <v>0.1043526307693475</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7523372372004036</v>
+        <v>0.6484773982365736</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1476097726139318</v>
+        <v>0.4451428930904934</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01125724284565503</v>
+        <v>-0.09382909758839381</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09236455865060524</v>
+        <v>0.3175828039673165</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2688479067397373</v>
+        <v>-0.1542397762835904</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QSERV</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8755563536941667</v>
+        <v>0.5277738002356493</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2475053939530402</v>
+        <v>0.3860111196285583</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01400336336096869</v>
+        <v>-0.186875809908064</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2099414432256193</v>
+        <v>0.3543215291102447</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.140036261970166</v>
+        <v>-0.03855995781613342</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QSERV</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5277737987817559</v>
+        <v>0.7523372382134341</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3860111213665057</v>
+        <v>0.1476097714664718</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1868758101755612</v>
+        <v>-0.01125724324354274</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3543215283808705</v>
+        <v>0.09236455893403135</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03855995831982773</v>
+        <v>-0.268847905743174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8335417183130276</v>
+        <v>0.7907959801087903</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3477459727011014</v>
+        <v>0.1697374938532863</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1159861004486631</v>
+        <v>-0.01961142838724014</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1412652495573637</v>
+        <v>0.2266196897906891</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.09805697642685238</v>
+        <v>-0.2859865792191026</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.790795988052354</v>
+        <v>0.8335417240452991</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1697374894623569</v>
+        <v>0.3477459695309182</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01961142254568578</v>
+        <v>-0.1159860998568331</v>
       </c>
       <c r="E7" t="n">
-        <v>0.22661969492656</v>
+        <v>0.1412652495744246</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.28598658529847</v>
+        <v>-0.09805697550088645</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.648477396197611</v>
+        <v>0.8755563542687488</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4451428950231735</v>
+        <v>0.2475053920687619</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0938290979478222</v>
+        <v>0.01400336361569062</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3175828029973002</v>
+        <v>0.2099414439935967</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1542397767385474</v>
+        <v>-0.1400362615273635</v>
       </c>
     </row>
     <row r="9">
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5447678170567508</v>
+        <v>0.5447678221922488</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3097178122419197</v>
+        <v>0.3097178103341896</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08643488457457953</v>
+        <v>-0.08643488338332796</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07397525914745263</v>
+        <v>0.07397525862301159</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2884044920518914</v>
+        <v>0.2884044970735956</v>
       </c>
     </row>
     <row r="10">
@@ -764,19 +764,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3668007646090497</v>
+        <v>0.3668007650161663</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8225015925466849</v>
+        <v>0.8225015955555288</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.02259948807902612</v>
+        <v>-0.02259948686178994</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.03119507052381059</v>
+        <v>-0.03119507389113898</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02428594130392823</v>
+        <v>-0.02428594150303115</v>
       </c>
     </row>
     <row r="11">
@@ -786,19 +786,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4803068725427589</v>
+        <v>0.4803068722416163</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6956539989782848</v>
+        <v>0.695654014931484</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2531491181775624</v>
+        <v>-0.2531491196281418</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2524414221907519</v>
+        <v>0.2524414187005414</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06893418911334383</v>
+        <v>0.06893419244810839</v>
       </c>
     </row>
     <row r="12">
@@ -808,129 +808,129 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1818961270751769</v>
+        <v>0.1818961254000639</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8639279846712865</v>
+        <v>0.8639279902154168</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1646723798759466</v>
+        <v>-0.1646723792240385</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3092163431362124</v>
+        <v>0.3092163416156365</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.015662629248636</v>
+        <v>-0.01566262984896203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>QPOVTY</t>
+          <t>QRENTER</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3961340612735071</v>
+        <v>-0.01907546856000766</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1517075710743537</v>
+        <v>0.2341572220789369</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3133146684616216</v>
+        <v>-0.426819444523264</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5535940106955284</v>
+        <v>0.7484008130420402</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09229548541763682</v>
+        <v>-0.1155640084771295</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>QRENTER</t>
+          <t>QNOAUTO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01907546798924401</v>
+        <v>0.1274383130594738</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2341572209468977</v>
+        <v>0.08567042866239177</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4268194408677469</v>
+        <v>-0.06014622622027892</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7484008132732326</v>
+        <v>0.6906315098292366</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1155640098529979</v>
+        <v>0.04382609482838686</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>QNOAUTO</t>
+          <t>QPOVTY</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1274383132077157</v>
+        <v>0.3961340619172994</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08567043071825957</v>
+        <v>0.1517075703026682</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.06014622966460529</v>
+        <v>-0.3133146679383343</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6906314990918945</v>
+        <v>0.5535940134509935</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04382609524289294</v>
+        <v>0.0922954857197491</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>QAGEDEP</t>
+          <t>MEDAGE</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03648373276357397</v>
+        <v>-0.3172320250559871</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.115668351801531</v>
+        <v>-0.242527512728358</v>
       </c>
       <c r="D16" t="n">
-        <v>0.686045992164209</v>
+        <v>0.7789709702313978</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.09660788821544457</v>
+        <v>-0.2970161777501997</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5943324739479722</v>
+        <v>-0.05364863875777251</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>MEDAGE</t>
+          <t>QAGEDEP</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3172320243517217</v>
+        <v>-0.03648373506073081</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2425275132041149</v>
+        <v>-0.1156683506291939</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7789709709292936</v>
+        <v>0.6860459936165838</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2970161795263056</v>
+        <v>-0.09660788809046474</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0536486375638219</v>
+        <v>0.5943324668861167</v>
       </c>
     </row>
     <row r="18">
@@ -940,63 +940,63 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01908852586679504</v>
+        <v>0.01908852537982779</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.03712547504907433</v>
+        <v>-0.03712547503950558</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7831494153195101</v>
+        <v>0.7831494215062663</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1342903166814585</v>
+        <v>-0.1342903125725542</v>
       </c>
       <c r="F18" t="n">
-        <v>0.09955596352976442</v>
+        <v>0.0995559592412104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>QFEMLBR</t>
+          <t>QFEMALE</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.2367556363254903</v>
+        <v>-0.05366633227337104</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08379889747285134</v>
+        <v>-0.06387086926121399</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.03449523893993269</v>
+        <v>0.184463602638826</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04713344746588318</v>
+        <v>-0.006743986934936302</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8071208457748817</v>
+        <v>0.8303066316541788</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>QFEMALE</t>
+          <t>QFEMLBR</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.05366633284534202</v>
+        <v>-0.2367556383835338</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.06387086783323996</v>
+        <v>0.08379889872234192</v>
       </c>
       <c r="D20" t="n">
-        <v>0.184463599458059</v>
+        <v>-0.03449523983892155</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.006743987463700868</v>
+        <v>0.04713344724373027</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8303066219177663</v>
+        <v>0.8071208582098236</v>
       </c>
     </row>
   </sheetData>
@@ -1112,55 +1112,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.207208512944224</v>
+        <v>5.207208521200397</v>
       </c>
       <c r="C2" t="n">
-        <v>2.87966081360888</v>
+        <v>2.879660807879201</v>
       </c>
       <c r="D2" t="n">
-        <v>2.320870207216042</v>
+        <v>2.320870209207491</v>
       </c>
       <c r="E2" t="n">
-        <v>2.280499942157751</v>
+        <v>2.280499951741452</v>
       </c>
       <c r="F2" t="n">
-        <v>1.987191272486944</v>
+        <v>1.987191277117984</v>
       </c>
       <c r="G2" t="n">
-        <v>1.630329241279864</v>
+        <v>1.6303292642431</v>
       </c>
       <c r="H2" t="n">
-        <v>1.079689581113205</v>
+        <v>1.07968958087668</v>
       </c>
       <c r="I2" t="n">
-        <v>4.722615391678889</v>
+        <v>4.722615406815523</v>
       </c>
       <c r="J2" t="n">
-        <v>3.480168163272777</v>
+        <v>3.480168177672616</v>
       </c>
       <c r="K2" t="n">
-        <v>2.298524099408747</v>
+        <v>2.298524093778104</v>
       </c>
       <c r="L2" t="n">
-        <v>2.143689078826132</v>
+        <v>2.143689086244914</v>
       </c>
       <c r="M2" t="n">
-        <v>2.018073902641647</v>
+        <v>2.01807390787403</v>
       </c>
       <c r="N2" t="n">
-        <v>4.995669843142909</v>
+        <v>4.995669856720731</v>
       </c>
       <c r="O2" t="n">
-        <v>2.752559844223482</v>
+        <v>2.752559874573491</v>
       </c>
       <c r="P2" t="n">
-        <v>2.18426812811754</v>
+        <v>2.184268141804553</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.119818605388199</v>
+        <v>2.119818616378288</v>
       </c>
       <c r="R2" t="n">
-        <v>2.038891323730269</v>
+        <v>2.038891349445035</v>
       </c>
     </row>
     <row r="3">
@@ -1170,55 +1170,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1928595745534898</v>
+        <v>0.192859574859274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1066541042077363</v>
+        <v>0.106654103995526</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08595815582281637</v>
+        <v>0.08595815589657373</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08446296082065743</v>
+        <v>0.08446296117560932</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07359967675877571</v>
+        <v>0.07359967693029569</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0603825644918468</v>
+        <v>0.06038256534233703</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03998850300419279</v>
+        <v>0.0399885029954326</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2248864472228042</v>
+        <v>0.2248864479435963</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1657222934891798</v>
+        <v>0.1657222941748865</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1094535285432736</v>
+        <v>0.1094535282751478</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1020804323250539</v>
+        <v>0.1020804326783293</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09609875726864986</v>
+        <v>0.09609875751781095</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2629299917443636</v>
+        <v>0.2629299924589859</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1448715707486043</v>
+        <v>0.1448715723459732</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1149614804272389</v>
+        <v>0.1149614811476081</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1115694002835894</v>
+        <v>0.1115694008620152</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1073100696700142</v>
+        <v>0.1073100710234229</v>
       </c>
     </row>
     <row r="4">
@@ -1228,55 +1228,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1928595745534898</v>
+        <v>0.192859574859274</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2995136787612261</v>
+        <v>0.2995136788548</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3854718345840424</v>
+        <v>0.3854718347513737</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4699347954046998</v>
+        <v>0.469934795926983</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5435344721634756</v>
+        <v>0.5435344728572787</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6039170366553224</v>
+        <v>0.6039170381996157</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6439055396595151</v>
+        <v>0.6439055411950483</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2248864472228042</v>
+        <v>0.2248864479435963</v>
       </c>
       <c r="J4" t="n">
-        <v>0.390608740711984</v>
+        <v>0.3906087421184828</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5000622692552577</v>
+        <v>0.5000622703936306</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6021427015803116</v>
+        <v>0.6021427030719598</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6982414588489614</v>
+        <v>0.6982414605897708</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2629299917443636</v>
+        <v>0.2629299924589859</v>
       </c>
       <c r="O4" t="n">
-        <v>0.407801562492968</v>
+        <v>0.407801564804959</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5227630429202069</v>
+        <v>0.5227630459525672</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6343324432037963</v>
+        <v>0.6343324468145823</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7416425128738106</v>
+        <v>0.7416425178380053</v>
       </c>
     </row>
     <row r="5">
@@ -1286,55 +1286,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2995153212309219</v>
+        <v>0.2995153209915521</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1656362581755904</v>
+        <v>0.1656362574510271</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1334949779563465</v>
+        <v>0.1334949777525455</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1311729059907138</v>
+        <v>0.1311729062291518</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1143019778921203</v>
+        <v>0.1143019778859168</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09377550086581944</v>
+        <v>0.09377550196302205</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06210305788848772</v>
+        <v>0.06210305772678466</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3220754717050539</v>
+        <v>0.322075471934373</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2373423854870636</v>
+        <v>0.2373423858773853</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1567559862797403</v>
+        <v>0.156755985504925</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1461964640331322</v>
+        <v>0.1461964641745949</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1376296924950102</v>
+        <v>0.1376296925087218</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3545238941677293</v>
+        <v>0.3545238927582856</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1953388165239309</v>
+        <v>0.1953388173702537</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1550092914465914</v>
+        <v>0.1550092913803504</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1504355512890788</v>
+        <v>0.1504355510620616</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1446924465726695</v>
+        <v>0.1446924474290487</v>
       </c>
     </row>
   </sheetData>
@@ -1390,19 +1390,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.995669843142909</v>
+        <v>4.995669856720731</v>
       </c>
       <c r="C2" t="n">
-        <v>2.752559844223482</v>
+        <v>2.752559874573491</v>
       </c>
       <c r="D2" t="n">
-        <v>2.18426812811754</v>
+        <v>2.184268141804553</v>
       </c>
       <c r="E2" t="n">
-        <v>2.119818605388199</v>
+        <v>2.119818616378288</v>
       </c>
       <c r="F2" t="n">
-        <v>2.038891323730269</v>
+        <v>2.038891349445035</v>
       </c>
     </row>
     <row r="3">
@@ -1412,19 +1412,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2629299917443636</v>
+        <v>0.2629299924589859</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1448715707486043</v>
+        <v>0.1448715723459732</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1149614804272389</v>
+        <v>0.1149614811476081</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1115694002835894</v>
+        <v>0.1115694008620152</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1073100696700142</v>
+        <v>0.1073100710234229</v>
       </c>
     </row>
     <row r="4">
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2629299917443636</v>
+        <v>0.2629299924589859</v>
       </c>
       <c r="C4" t="n">
-        <v>0.407801562492968</v>
+        <v>0.407801564804959</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5227630429202069</v>
+        <v>0.5227630459525672</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6343324432037963</v>
+        <v>0.6343324468145823</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7416425128738106</v>
+        <v>0.7416425178380053</v>
       </c>
     </row>
     <row r="5">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3545238941677293</v>
+        <v>0.3545238927582856</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1953388165239309</v>
+        <v>0.1953388173702537</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1550092914465914</v>
+        <v>0.1550092913803504</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1504355512890788</v>
+        <v>0.1504355510620616</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1446924465726695</v>
+        <v>0.1446924474290487</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['PPUNIT', 'QEXTRCT', 'QEDLESHI', 'QSERV', 'QHISPC', 'QESL', 'QNOHLTH', 'QFHH', 'PERCAP', 'MDHSEVAL', 'QRICH', 'QAGEDEP', 'MEDAGE', 'QSSBEN', 'QPOVTY', 'QRENTER', 'QNOAUTO', 'QFEMLBR', 'QFEMALE']]</t>
+          <t>[['PPUNIT', 'QNOHLTH', 'QSERV', 'QEXTRCT', 'QESL', 'QHISPC', 'QEDLESHI', 'QFHH', 'PERCAP', 'MDHSEVAL', 'QRICH', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QRENTER', 'QNOAUTO', 'QPOVTY', 'QFEMALE', 'QFEMLBR']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Travis_County/Documentation/Travis_County_2016_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2016_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['PPUNIT' 'QNOHLTH' 'QSERV' 'QEXTRCT' 'QESL' 'QHISPC' 'QEDLESHI' 'QFHH'
+          <t>['QEXTRCT' 'QESL' 'QSERV' 'QEDLESHI' 'QNOHLTH' 'QHISPC' 'PPUNIT' 'QFHH'
  'PERCAP']</t>
         </is>
       </c>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['MDHSEVAL' 'PERCAP' 'QRICH']</t>
+          <t>['MDHSEVAL' 'QRICH' 'PERCAP']</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['QRENTER' 'QNOAUTO' 'QPOVTY']</t>
+          <t>['QNOAUTO' 'QRENTER' 'QPOVTY']</t>
         </is>
       </c>
     </row>
@@ -584,45 +584,45 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7835523171479716</v>
+        <v>0.7523372388046812</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.003789133447526956</v>
+        <v>0.1476097742189251</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1313207950294227</v>
+        <v>-0.01125724257574194</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3772473370256653</v>
+        <v>0.09236455845170097</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1043526307693475</v>
+        <v>-0.2688479088422712</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6484773982365736</v>
+        <v>0.7907959775461687</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4451428930904934</v>
+        <v>0.1697374988658497</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.09382909758839381</v>
+        <v>-0.01961142937452865</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3175828039673165</v>
+        <v>0.2266196884960693</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1542397762835904</v>
+        <v>-0.2859865805172582</v>
       </c>
     </row>
     <row r="4">
@@ -632,63 +632,63 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5277738002356493</v>
+        <v>0.5277737972858135</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3860111196285583</v>
+        <v>0.3860111254715834</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.186875809908064</v>
+        <v>-0.186875811666546</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3543215291102447</v>
+        <v>0.3543215241641827</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03855995781613342</v>
+        <v>-0.03855995713223806</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7523372382134341</v>
+        <v>0.8755563632984731</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1476097714664718</v>
+        <v>0.2475053926486238</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01125724324354274</v>
+        <v>0.01400336817481724</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09236455893403135</v>
+        <v>0.2099414464889168</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.268847905743174</v>
+        <v>-0.1400362633406497</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7907959801087903</v>
+        <v>0.6484773972341822</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1697374938532863</v>
+        <v>0.4451429026772523</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.01961142838724014</v>
+        <v>-0.09382909581904113</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2266196897906891</v>
+        <v>0.3175828025819869</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2859865792191026</v>
+        <v>-0.1542397782374648</v>
       </c>
     </row>
     <row r="7">
@@ -698,41 +698,41 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8335417240452991</v>
+        <v>0.8335417234936159</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3477459695309182</v>
+        <v>0.3477459759109507</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1159860998568331</v>
+        <v>-0.115986100727032</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1412652495744246</v>
+        <v>0.1412652462495556</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.09805697550088645</v>
+        <v>-0.09805697578229695</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8755563542687488</v>
+        <v>0.7835523177241618</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2475053920687619</v>
+        <v>-0.003789133439200864</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01400336361569062</v>
+        <v>-0.1313207982058822</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2099414439935967</v>
+        <v>-0.3772473391270746</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1400362615273635</v>
+        <v>0.104352633181831</v>
       </c>
     </row>
     <row r="9">
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5447678221922488</v>
+        <v>0.5447678227461257</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3097178103341896</v>
+        <v>0.3097178148298905</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08643488338332796</v>
+        <v>-0.08643488586805781</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07397525862301159</v>
+        <v>0.07397525521719166</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2884044970735956</v>
+        <v>0.2884045033015984</v>
       </c>
     </row>
     <row r="10">
@@ -764,107 +764,107 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3668007650161663</v>
+        <v>0.3668007642514763</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8225015955555288</v>
+        <v>0.822501579834085</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.02259948686178994</v>
+        <v>-0.02259948863028091</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.03119507389113898</v>
+        <v>-0.03119506961102833</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02428594150303115</v>
+        <v>-0.02428594017357026</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>PERCAP</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4803068722416163</v>
+        <v>0.1818961218777485</v>
       </c>
       <c r="C11" t="n">
-        <v>0.695654014931484</v>
+        <v>0.8639279956173914</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2531491196281418</v>
+        <v>-0.1646723789556409</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2524414187005414</v>
+        <v>0.3092163334109492</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06893419244810839</v>
+        <v>-0.01566263005804415</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>PERCAP</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1818961254000639</v>
+        <v>0.4803068688546123</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8639279902154168</v>
+        <v>0.6956540105535695</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1646723792240385</v>
+        <v>-0.2531491187582484</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3092163416156365</v>
+        <v>0.2524414141338883</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.01566262984896203</v>
+        <v>0.06893419055627673</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>QRENTER</t>
+          <t>QNOAUTO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01907546856000766</v>
+        <v>0.127438313694853</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2341572220789369</v>
+        <v>0.08567042939532865</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.426819444523264</v>
+        <v>-0.06014622638451773</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7484008130420402</v>
+        <v>0.6906315149347382</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1155640084771295</v>
+        <v>0.04382609698836633</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>QNOAUTO</t>
+          <t>QRENTER</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1274383130594738</v>
+        <v>-0.01907547123387814</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08567042866239177</v>
+        <v>0.2341572258639969</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.06014622622027892</v>
+        <v>-0.4268194462740842</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6906315098292366</v>
+        <v>0.7484008184365988</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04382609482838686</v>
+        <v>-0.1155640097222645</v>
       </c>
     </row>
     <row r="15">
@@ -874,19 +874,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3961340619172994</v>
+        <v>0.3961340604272641</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1517075703026682</v>
+        <v>0.1517075758640082</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3133146679383343</v>
+        <v>-0.313314669776414</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5535940134509935</v>
+        <v>0.5535940075275635</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0922954857197491</v>
+        <v>0.09229548602624404</v>
       </c>
     </row>
     <row r="16">
@@ -896,19 +896,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.3172320250559871</v>
+        <v>-0.3172320227156961</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.242527512728358</v>
+        <v>-0.2425275176457486</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7789709702313978</v>
+        <v>0.7789709641876643</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2970161777501997</v>
+        <v>-0.2970161764572439</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.05364863875777251</v>
+        <v>-0.0536486368882064</v>
       </c>
     </row>
     <row r="17">
@@ -918,19 +918,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.03648373506073081</v>
+        <v>-0.03648373412643213</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1156683506291939</v>
+        <v>-0.1156683521393399</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6860459936165838</v>
+        <v>0.6860459959080255</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.09660788809046474</v>
+        <v>-0.0966078854101601</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5943324668861167</v>
+        <v>0.5943324690526524</v>
       </c>
     </row>
     <row r="18">
@@ -940,19 +940,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01908852537982779</v>
+        <v>0.01908852567450265</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.03712547503950558</v>
+        <v>-0.03712547563451811</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7831494215062663</v>
+        <v>0.783149422021976</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1342903125725542</v>
+        <v>-0.1342903124544238</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0995559592412104</v>
+        <v>0.09955596022412538</v>
       </c>
     </row>
     <row r="19">
@@ -962,19 +962,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.05366633227337104</v>
+        <v>-0.05366633405397437</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.06387086926121399</v>
+        <v>-0.06387086805218656</v>
       </c>
       <c r="D19" t="n">
-        <v>0.184463602638826</v>
+        <v>0.1844636028732332</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.006743986934936302</v>
+        <v>-0.006743986369822035</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8303066316541788</v>
+        <v>0.8303066175808939</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.2367556383835338</v>
+        <v>-0.2367556374068932</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08379889872234192</v>
+        <v>0.08379889732007106</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.03449523983892155</v>
+        <v>-0.03449523970000632</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04713344724373027</v>
+        <v>0.04713344734151457</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8071208582098236</v>
+        <v>0.8071208587853624</v>
       </c>
     </row>
   </sheetData>
@@ -1133,34 +1133,34 @@
         <v>1.07968958087668</v>
       </c>
       <c r="I2" t="n">
-        <v>4.722615406815523</v>
+        <v>4.722615441424765</v>
       </c>
       <c r="J2" t="n">
-        <v>3.480168177672616</v>
+        <v>3.480168176765797</v>
       </c>
       <c r="K2" t="n">
-        <v>2.298524093778104</v>
+        <v>2.298524109116586</v>
       </c>
       <c r="L2" t="n">
-        <v>2.143689086244914</v>
+        <v>2.143689085393522</v>
       </c>
       <c r="M2" t="n">
-        <v>2.01807390787403</v>
+        <v>2.018073925560671</v>
       </c>
       <c r="N2" t="n">
-        <v>4.995669856720731</v>
+        <v>4.995669857716766</v>
       </c>
       <c r="O2" t="n">
-        <v>2.752559874573491</v>
+        <v>2.752559880998476</v>
       </c>
       <c r="P2" t="n">
-        <v>2.184268141804553</v>
+        <v>2.184268140576965</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.119818616378288</v>
+        <v>2.119818612112983</v>
       </c>
       <c r="R2" t="n">
-        <v>2.038891349445035</v>
+        <v>2.038891337406822</v>
       </c>
     </row>
     <row r="3">
@@ -1191,34 +1191,34 @@
         <v>0.0399885029954326</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2248864479435963</v>
+        <v>0.2248864495916555</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1657222941748865</v>
+        <v>0.1657222941317046</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1094535282751478</v>
+        <v>0.1094535290055517</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1020804326783293</v>
+        <v>0.1020804326377868</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09609875751781095</v>
+        <v>0.09609875836003193</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2629299924589859</v>
+        <v>0.2629299925114087</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1448715723459732</v>
+        <v>0.1448715726841303</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1149614811476081</v>
+        <v>0.1149614810829981</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1115694008620152</v>
+        <v>0.1115694006375254</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1073100710234229</v>
+        <v>0.1073100703898327</v>
       </c>
     </row>
     <row r="4">
@@ -1249,34 +1249,34 @@
         <v>0.6439055411950483</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2248864479435963</v>
+        <v>0.2248864495916555</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3906087421184828</v>
+        <v>0.3906087437233601</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5000622703936306</v>
+        <v>0.5000622727289118</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6021427030719598</v>
+        <v>0.6021427053666986</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6982414605897708</v>
+        <v>0.6982414637267305</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2629299924589859</v>
+        <v>0.2629299925114087</v>
       </c>
       <c r="O4" t="n">
-        <v>0.407801564804959</v>
+        <v>0.407801565195539</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5227630459525672</v>
+        <v>0.5227630462785371</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6343324468145823</v>
+        <v>0.6343324469160625</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7416425178380053</v>
+        <v>0.7416425173058953</v>
       </c>
     </row>
     <row r="5">
@@ -1307,34 +1307,34 @@
         <v>0.06210305772678466</v>
       </c>
       <c r="I5" t="n">
-        <v>0.322075471934373</v>
+        <v>0.322075472847698</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2373423858773853</v>
+        <v>0.2373423847492435</v>
       </c>
       <c r="K5" t="n">
-        <v>0.156755985504925</v>
+        <v>0.1567559858467361</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1461964641745949</v>
+        <v>0.1461964634597206</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1376296925087218</v>
+        <v>0.1376296930966018</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3545238927582856</v>
+        <v>0.3545238930833324</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1953388173702537</v>
+        <v>0.1953388179663614</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1550092913803504</v>
+        <v>0.1550092914044483</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1504355510620616</v>
+        <v>0.1504355508673026</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1446924474290487</v>
+        <v>0.1446924466785553</v>
       </c>
     </row>
   </sheetData>
@@ -1390,19 +1390,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.995669856720731</v>
+        <v>4.995669857716766</v>
       </c>
       <c r="C2" t="n">
-        <v>2.752559874573491</v>
+        <v>2.752559880998476</v>
       </c>
       <c r="D2" t="n">
-        <v>2.184268141804553</v>
+        <v>2.184268140576965</v>
       </c>
       <c r="E2" t="n">
-        <v>2.119818616378288</v>
+        <v>2.119818612112983</v>
       </c>
       <c r="F2" t="n">
-        <v>2.038891349445035</v>
+        <v>2.038891337406822</v>
       </c>
     </row>
     <row r="3">
@@ -1412,19 +1412,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2629299924589859</v>
+        <v>0.2629299925114087</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1448715723459732</v>
+        <v>0.1448715726841303</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1149614811476081</v>
+        <v>0.1149614810829981</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1115694008620152</v>
+        <v>0.1115694006375254</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1073100710234229</v>
+        <v>0.1073100703898327</v>
       </c>
     </row>
     <row r="4">
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2629299924589859</v>
+        <v>0.2629299925114087</v>
       </c>
       <c r="C4" t="n">
-        <v>0.407801564804959</v>
+        <v>0.407801565195539</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5227630459525672</v>
+        <v>0.5227630462785371</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6343324468145823</v>
+        <v>0.6343324469160625</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7416425178380053</v>
+        <v>0.7416425173058953</v>
       </c>
     </row>
     <row r="5">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3545238927582856</v>
+        <v>0.3545238930833324</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1953388173702537</v>
+        <v>0.1953388179663614</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1550092913803504</v>
+        <v>0.1550092914044483</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1504355510620616</v>
+        <v>0.1504355508673026</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1446924474290487</v>
+        <v>0.1446924466785553</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['PPUNIT', 'QNOHLTH', 'QSERV', 'QEXTRCT', 'QESL', 'QHISPC', 'QEDLESHI', 'QFHH', 'PERCAP', 'MDHSEVAL', 'QRICH', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QRENTER', 'QNOAUTO', 'QPOVTY', 'QFEMALE', 'QFEMLBR']]</t>
+          <t>[['QEXTRCT', 'QESL', 'QSERV', 'QEDLESHI', 'QNOHLTH', 'QHISPC', 'PPUNIT', 'QFHH', 'PERCAP', 'MDHSEVAL', 'QRICH', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QNOAUTO', 'QRENTER', 'QPOVTY', 'QFEMALE', 'QFEMLBR']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Travis_County/Documentation/Travis_County_2016_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2016_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QEXTRCT' 'QESL' 'QSERV' 'QEDLESHI' 'QNOHLTH' 'QHISPC' 'PPUNIT' 'QFHH'
+          <t>['QSERV' 'QHISPC' 'QEDLESHI' 'QNOHLTH' 'QESL' 'PPUNIT' 'QEXTRCT' 'QFHH'
  'PERCAP']</t>
         </is>
       </c>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['MEDAGE' 'QAGEDEP' 'QSSBEN']</t>
+          <t>['QAGEDEP' 'QSSBEN' 'MEDAGE']</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['QNOAUTO' 'QRENTER' 'QPOVTY']</t>
+          <t>['QNOAUTO' 'QPOVTY' 'QRENTER']</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['QAGEDEP' 'QFEMALE' 'QFEMLBR']</t>
+          <t>['QAGEDEP' 'QFEMLBR' 'QFEMALE']</t>
         </is>
       </c>
     </row>
@@ -584,155 +584,155 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QSERV</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7523372388046812</v>
+        <v>0.527773798401461</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1476097742189251</v>
+        <v>0.3860111216432911</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01125724257574194</v>
+        <v>-0.1868758135116943</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09236455845170097</v>
+        <v>0.354321523853212</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2688479088422712</v>
+        <v>-0.03855995772938289</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7907959775461687</v>
+        <v>0.8335417236436697</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1697374988658497</v>
+        <v>0.3477459721311119</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01961142937452865</v>
+        <v>-0.1159861013261645</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2266196884960693</v>
+        <v>0.1412652469771052</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2859865805172582</v>
+        <v>-0.09805697665199882</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QSERV</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5277737972858135</v>
+        <v>0.8755563575228159</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3860111254715834</v>
+        <v>0.2475053926510344</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.186875811666546</v>
+        <v>0.01400336487767863</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3543215241641827</v>
+        <v>0.2099414451999919</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03855995713223806</v>
+        <v>-0.1400362633202189</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8755563632984731</v>
+        <v>0.6484773974648308</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2475053926486238</v>
+        <v>0.4451428969732948</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01400336817481724</v>
+        <v>-0.09382909943578427</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2099414464889168</v>
+        <v>0.3175828013834935</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1400362633406497</v>
+        <v>-0.1542397774428718</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6484773972341822</v>
+        <v>0.7907959742290726</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4451429026772523</v>
+        <v>0.1697374991404037</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.09382909581904113</v>
+        <v>-0.01961143171220127</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3175828025819869</v>
+        <v>0.2266196868953843</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1542397782374648</v>
+        <v>-0.2859865796627279</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8335417234936159</v>
+        <v>0.7835523160839951</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3477459759109507</v>
+        <v>-0.003789135076196481</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.115986100727032</v>
+        <v>-0.131320794436579</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1412652462495556</v>
+        <v>-0.377247336061985</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.09805697578229695</v>
+        <v>0.1043526311122389</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7835523177241618</v>
+        <v>0.7523372406717769</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.003789133439200864</v>
+        <v>0.1476097716879644</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1313207982058822</v>
+        <v>-0.01125724233229494</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.3772473391270746</v>
+        <v>0.09236455865600428</v>
       </c>
       <c r="F8" t="n">
-        <v>0.104352633181831</v>
+        <v>-0.2688479104752657</v>
       </c>
     </row>
     <row r="9">
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5447678227461257</v>
+        <v>0.5447678211090614</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3097178148298905</v>
+        <v>0.3097178102215681</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08643488586805781</v>
+        <v>-0.08643488404640712</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07397525521719166</v>
+        <v>0.07397525800617698</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2884045033015984</v>
+        <v>0.2884044969508311</v>
       </c>
     </row>
     <row r="10">
@@ -764,19 +764,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3668007642514763</v>
+        <v>0.3668007681726036</v>
       </c>
       <c r="C10" t="n">
-        <v>0.822501579834085</v>
+        <v>0.8225015767674182</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.02259948863028091</v>
+        <v>-0.02259948959778094</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.03119506961102833</v>
+        <v>-0.03119506946875829</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02428594017357026</v>
+        <v>-0.02428594007996773</v>
       </c>
     </row>
     <row r="11">
@@ -786,19 +786,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1818961218777485</v>
+        <v>0.1818961232561695</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8639279956173914</v>
+        <v>0.8639279978086627</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1646723789556409</v>
+        <v>-0.1646723816573004</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3092163334109492</v>
+        <v>0.3092163333297806</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01566263005804415</v>
+        <v>-0.01566263042680391</v>
       </c>
     </row>
     <row r="12">
@@ -808,19 +808,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4803068688546123</v>
+        <v>0.4803068718055284</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6956540105535695</v>
+        <v>0.6956540116243626</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2531491187582484</v>
+        <v>-0.2531491223390959</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2524414141338883</v>
+        <v>0.2524414130048208</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06893419055627673</v>
+        <v>0.06893419161578869</v>
       </c>
     </row>
     <row r="13">
@@ -830,173 +830,173 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.127438313694853</v>
+        <v>0.1274383136779815</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08567042939532865</v>
+        <v>0.08567042951629011</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.06014622638451773</v>
+        <v>-0.06014622973025791</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6906315149347382</v>
+        <v>0.6906315125289809</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04382609698836633</v>
+        <v>0.04382609677170136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>QRENTER</t>
+          <t>QPOVTY</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01907547123387814</v>
+        <v>0.3961340608327603</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2341572258639969</v>
+        <v>0.1517075738531815</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4268194462740842</v>
+        <v>-0.3133146727667287</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7484008184365988</v>
+        <v>0.5535940069429346</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1155640097222645</v>
+        <v>0.09229548562342259</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>QPOVTY</t>
+          <t>QRENTER</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3961340604272641</v>
+        <v>-0.01907546957071893</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1517075758640082</v>
+        <v>0.2341572257899979</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.313314669776414</v>
+        <v>-0.4268194506734547</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5535940075275635</v>
+        <v>0.7484008082129754</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09229548602624404</v>
+        <v>-0.1155640098205284</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MEDAGE</t>
+          <t>QAGEDEP</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.3172320227156961</v>
+        <v>-0.03648373641856956</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2425275176457486</v>
+        <v>-0.1156683492432435</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7789709641876643</v>
+        <v>0.6860459839132048</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2970161764572439</v>
+        <v>-0.09660788802146582</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0536486368882064</v>
+        <v>0.5943324587269403</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>QAGEDEP</t>
+          <t>QSSBEN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.03648373412643213</v>
+        <v>0.01908852566369217</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1156683521393399</v>
+        <v>-0.0371254773654064</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6860459959080255</v>
+        <v>0.7831494100350442</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0966078854101601</v>
+        <v>-0.1342903110163737</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5943324690526524</v>
+        <v>0.09955596294146797</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>QSSBEN</t>
+          <t>MEDAGE</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01908852567450265</v>
+        <v>-0.3172320232961239</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.03712547563451811</v>
+        <v>-0.2425275147491238</v>
       </c>
       <c r="D18" t="n">
-        <v>0.783149422021976</v>
+        <v>0.7789709694832544</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1342903124544238</v>
+        <v>-0.2970161715264348</v>
       </c>
       <c r="F18" t="n">
-        <v>0.09955596022412538</v>
+        <v>-0.05364863570250369</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>QFEMALE</t>
+          <t>QFEMLBR</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.05366633405397437</v>
+        <v>-0.2367556356186458</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.06387086805218656</v>
+        <v>0.08379889668760601</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1844636028732332</v>
+        <v>-0.03449523820275541</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.006743986369822035</v>
+        <v>0.04713344811063635</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8303066175808939</v>
+        <v>0.8071208598926645</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>QFEMLBR</t>
+          <t>QFEMALE</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.2367556374068932</v>
+        <v>-0.05366633319430788</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08379889732007106</v>
+        <v>-0.0638708668468258</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.03449523970000632</v>
+        <v>0.18446360544655</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04713344734151457</v>
+        <v>-0.006743985974391692</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8071208587853624</v>
+        <v>0.8303066162144787</v>
       </c>
     </row>
   </sheetData>
@@ -1133,34 +1133,34 @@
         <v>1.07968958087668</v>
       </c>
       <c r="I2" t="n">
-        <v>4.722615441424765</v>
+        <v>4.722615385164985</v>
       </c>
       <c r="J2" t="n">
-        <v>3.480168176765797</v>
+        <v>3.480168176063847</v>
       </c>
       <c r="K2" t="n">
-        <v>2.298524109116586</v>
+        <v>2.298524086378757</v>
       </c>
       <c r="L2" t="n">
-        <v>2.143689085393522</v>
+        <v>2.143689070833887</v>
       </c>
       <c r="M2" t="n">
-        <v>2.018073925560671</v>
+        <v>2.018073895317462</v>
       </c>
       <c r="N2" t="n">
-        <v>4.995669857716766</v>
+        <v>4.995669848601255</v>
       </c>
       <c r="O2" t="n">
-        <v>2.752559880998476</v>
+        <v>2.752559864241837</v>
       </c>
       <c r="P2" t="n">
-        <v>2.184268140576965</v>
+        <v>2.18426812341469</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.119818612112983</v>
+        <v>2.119818585562304</v>
       </c>
       <c r="R2" t="n">
-        <v>2.038891337406822</v>
+        <v>2.038891321407597</v>
       </c>
     </row>
     <row r="3">
@@ -1191,34 +1191,34 @@
         <v>0.0399885029954326</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2248864495916555</v>
+        <v>0.2248864469126184</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1657222941317046</v>
+        <v>0.1657222940982784</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1094535290055517</v>
+        <v>0.109453527922798</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1020804326377868</v>
+        <v>0.1020804319444708</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09609875836003193</v>
+        <v>0.09609875691987912</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2629299925114087</v>
+        <v>0.262929992031645</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1448715726841303</v>
+        <v>0.1448715718022019</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1149614810829981</v>
+        <v>0.1149614801797205</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1115694006375254</v>
+        <v>0.1115693992401213</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1073100703898327</v>
+        <v>0.1073100695477683</v>
       </c>
     </row>
     <row r="4">
@@ -1249,34 +1249,34 @@
         <v>0.6439055411950483</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2248864495916555</v>
+        <v>0.2248864469126184</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3906087437233601</v>
+        <v>0.3906087410108968</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5000622727289118</v>
+        <v>0.5000622689336948</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6021427053666986</v>
+        <v>0.6021427008781656</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6982414637267305</v>
+        <v>0.6982414577980447</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2629299925114087</v>
+        <v>0.262929992031645</v>
       </c>
       <c r="O4" t="n">
-        <v>0.407801565195539</v>
+        <v>0.4078015638338469</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5227630462785371</v>
+        <v>0.5227630440135674</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6343324469160625</v>
+        <v>0.6343324432536886</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7416425173058953</v>
+        <v>0.7416425128014569</v>
       </c>
     </row>
     <row r="5">
@@ -1307,34 +1307,34 @@
         <v>0.06210305772678466</v>
       </c>
       <c r="I5" t="n">
-        <v>0.322075472847698</v>
+        <v>0.322075471745568</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2373423847492435</v>
+        <v>0.2373423867166177</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1567559858467361</v>
+        <v>0.156755985627046</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1461964634597206</v>
+        <v>0.1461964637081117</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1376296930966018</v>
+        <v>0.1376296922026566</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3545238930833324</v>
+        <v>0.3545238945896744</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1953388179663614</v>
+        <v>0.1953388179636152</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1550092914044483</v>
+        <v>0.1550092911279704</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1504355508673026</v>
+        <v>0.1504355498967859</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1446924466785553</v>
+        <v>0.1446924464219542</v>
       </c>
     </row>
   </sheetData>
@@ -1390,19 +1390,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.995669857716766</v>
+        <v>4.995669848601255</v>
       </c>
       <c r="C2" t="n">
-        <v>2.752559880998476</v>
+        <v>2.752559864241837</v>
       </c>
       <c r="D2" t="n">
-        <v>2.184268140576965</v>
+        <v>2.18426812341469</v>
       </c>
       <c r="E2" t="n">
-        <v>2.119818612112983</v>
+        <v>2.119818585562304</v>
       </c>
       <c r="F2" t="n">
-        <v>2.038891337406822</v>
+        <v>2.038891321407597</v>
       </c>
     </row>
     <row r="3">
@@ -1412,19 +1412,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2629299925114087</v>
+        <v>0.262929992031645</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1448715726841303</v>
+        <v>0.1448715718022019</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1149614810829981</v>
+        <v>0.1149614801797205</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1115694006375254</v>
+        <v>0.1115693992401213</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1073100703898327</v>
+        <v>0.1073100695477683</v>
       </c>
     </row>
     <row r="4">
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2629299925114087</v>
+        <v>0.262929992031645</v>
       </c>
       <c r="C4" t="n">
-        <v>0.407801565195539</v>
+        <v>0.4078015638338469</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5227630462785371</v>
+        <v>0.5227630440135674</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6343324469160625</v>
+        <v>0.6343324432536886</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7416425173058953</v>
+        <v>0.7416425128014569</v>
       </c>
     </row>
     <row r="5">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3545238930833324</v>
+        <v>0.3545238945896744</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1953388179663614</v>
+        <v>0.1953388179636152</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1550092914044483</v>
+        <v>0.1550092911279704</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1504355508673026</v>
+        <v>0.1504355498967859</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1446924466785553</v>
+        <v>0.1446924464219542</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QEXTRCT', 'QESL', 'QSERV', 'QEDLESHI', 'QNOHLTH', 'QHISPC', 'PPUNIT', 'QFHH', 'PERCAP', 'MDHSEVAL', 'QRICH', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QNOAUTO', 'QRENTER', 'QPOVTY', 'QFEMALE', 'QFEMLBR']]</t>
+          <t>[['QSERV', 'QHISPC', 'QEDLESHI', 'QNOHLTH', 'QESL', 'PPUNIT', 'QEXTRCT', 'QFHH', 'PERCAP', 'MDHSEVAL', 'QRICH', 'QAGEDEP', 'QSSBEN', 'MEDAGE', 'QNOAUTO', 'QPOVTY', 'QRENTER', 'QFEMLBR', 'QFEMALE']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
